--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd6-Alcam.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd6-Alcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -85,16 +88,16 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd6</t>
   </si>
   <si>
     <t>Alcam</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.124682825040807</v>
+        <v>0.017595</v>
       </c>
       <c r="H2">
-        <v>0.124682825040807</v>
+        <v>0.052785</v>
       </c>
       <c r="I2">
-        <v>0.1765702448290314</v>
+        <v>0.01944639393453766</v>
       </c>
       <c r="J2">
-        <v>0.1765702448290314</v>
+        <v>0.01944639393453766</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.0773941854408</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="N2">
-        <v>2.0773941854408</v>
+        <v>0.455681</v>
       </c>
       <c r="O2">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="P2">
-        <v>0.01304140969230874</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="Q2">
-        <v>0.259015375764105</v>
+        <v>0.002672569065</v>
       </c>
       <c r="R2">
-        <v>0.259015375764105</v>
+        <v>0.024053121585</v>
       </c>
       <c r="S2">
-        <v>0.002302724902286658</v>
+        <v>1.678924440670833E-05</v>
       </c>
       <c r="T2">
-        <v>0.002302724902286658</v>
+        <v>1.678924440670833E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,49 +602,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.124682825040807</v>
+        <v>0.017595</v>
       </c>
       <c r="H3">
-        <v>0.124682825040807</v>
+        <v>0.052785</v>
       </c>
       <c r="I3">
-        <v>0.1765702448290314</v>
+        <v>0.01944639393453766</v>
       </c>
       <c r="J3">
-        <v>0.1765702448290314</v>
+        <v>0.01944639393453766</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.6435781637392</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="N3">
-        <v>23.6435781637392</v>
+        <v>6.883193</v>
       </c>
       <c r="O3">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="P3">
-        <v>0.1484290230455325</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="Q3">
-        <v>2.947948119528139</v>
+        <v>0.040369926945</v>
       </c>
       <c r="R3">
-        <v>2.947948119528139</v>
+        <v>0.363329342505</v>
       </c>
       <c r="S3">
-        <v>0.02620814893888361</v>
+        <v>0.0002536063816036742</v>
       </c>
       <c r="T3">
-        <v>0.02620814893888361</v>
+        <v>0.0002536063816036743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -661,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.124682825040807</v>
+        <v>0.017595</v>
       </c>
       <c r="H4">
-        <v>0.124682825040807</v>
+        <v>0.052785</v>
       </c>
       <c r="I4">
-        <v>0.1765702448290314</v>
+        <v>0.01944639393453766</v>
       </c>
       <c r="J4">
-        <v>0.1765702448290314</v>
+        <v>0.01944639393453766</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.22191885869</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="N4">
-        <v>23.22191885869</v>
+        <v>108.464678</v>
       </c>
       <c r="O4">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="P4">
-        <v>0.1457819415304978</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="Q4">
-        <v>2.895374446169862</v>
+        <v>0.6361453364699999</v>
       </c>
       <c r="R4">
-        <v>2.895374446169862</v>
+        <v>5.72530802823</v>
       </c>
       <c r="S4">
-        <v>0.02574075310769154</v>
+        <v>0.003996304406891925</v>
       </c>
       <c r="T4">
-        <v>0.02574075310769154</v>
+        <v>0.003996304406891926</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -723,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.124682825040807</v>
+        <v>0.017595</v>
       </c>
       <c r="H5">
-        <v>0.124682825040807</v>
+        <v>0.052785</v>
       </c>
       <c r="I5">
-        <v>0.1765702448290314</v>
+        <v>0.01944639393453766</v>
       </c>
       <c r="J5">
-        <v>0.1765702448290314</v>
+        <v>0.01944639393453766</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>109.547129590327</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="N5">
-        <v>109.547129590327</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="O5">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="P5">
-        <v>0.6877120421422326</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="Q5">
-        <v>13.65864559243335</v>
+        <v>0.4182708678149999</v>
       </c>
       <c r="R5">
-        <v>13.65864559243335</v>
+        <v>3.764437810335</v>
       </c>
       <c r="S5">
-        <v>0.1214294836529272</v>
+        <v>0.002627603499538383</v>
       </c>
       <c r="T5">
-        <v>0.1214294836529272</v>
+        <v>0.002627603499538383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.124682825040807</v>
+        <v>0.017595</v>
       </c>
       <c r="H6">
-        <v>0.124682825040807</v>
+        <v>0.052785</v>
       </c>
       <c r="I6">
-        <v>0.1765702448290314</v>
+        <v>0.01944639393453766</v>
       </c>
       <c r="J6">
-        <v>0.1765702448290314</v>
+        <v>0.01944639393453766</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.802128935121844</v>
+        <v>112.663142</v>
       </c>
       <c r="N6">
-        <v>0.802128935121844</v>
+        <v>337.989426</v>
       </c>
       <c r="O6">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="P6">
-        <v>0.005035583589428225</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="Q6">
-        <v>0.1000117016779657</v>
+        <v>1.98230798349</v>
       </c>
       <c r="R6">
-        <v>0.1000117016779657</v>
+        <v>17.84077185141</v>
       </c>
       <c r="S6">
-        <v>0.0008891342272423943</v>
+        <v>0.0124529815375165</v>
       </c>
       <c r="T6">
-        <v>0.0008891342272423943</v>
+        <v>0.0124529815375165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.32503993251254</v>
+        <v>0.017595</v>
       </c>
       <c r="H7">
-        <v>0.32503993251254</v>
+        <v>0.052785</v>
       </c>
       <c r="I7">
-        <v>0.4603070266026398</v>
+        <v>0.01944639393453766</v>
       </c>
       <c r="J7">
-        <v>0.4603070266026398</v>
+        <v>0.01944639393453766</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.0773941854408</v>
+        <v>0.8966459999999999</v>
       </c>
       <c r="N7">
-        <v>2.0773941854408</v>
+        <v>2.689938</v>
       </c>
       <c r="O7">
-        <v>0.01304140969230874</v>
+        <v>0.005096516347148872</v>
       </c>
       <c r="P7">
-        <v>0.01304140969230874</v>
+        <v>0.005096516347148873</v>
       </c>
       <c r="Q7">
-        <v>0.6752360658376206</v>
+        <v>0.01577648637</v>
       </c>
       <c r="R7">
-        <v>0.6752360658376206</v>
+        <v>0.14198837733</v>
       </c>
       <c r="S7">
-        <v>0.006003052518173484</v>
+        <v>9.910886458046785E-05</v>
       </c>
       <c r="T7">
-        <v>0.006003052518173484</v>
+        <v>9.910886458046786E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.32503993251254</v>
+        <v>0.150426</v>
       </c>
       <c r="H8">
-        <v>0.32503993251254</v>
+        <v>0.451278</v>
       </c>
       <c r="I8">
-        <v>0.4603070266026398</v>
+        <v>0.1662542343845843</v>
       </c>
       <c r="J8">
-        <v>0.4603070266026398</v>
+        <v>0.1662542343845844</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>23.6435781637392</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="N8">
-        <v>23.6435781637392</v>
+        <v>0.455681</v>
       </c>
       <c r="O8">
-        <v>0.1484290230455325</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="P8">
-        <v>0.1484290230455325</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="Q8">
-        <v>7.685107050696754</v>
+        <v>0.022848756702</v>
       </c>
       <c r="R8">
-        <v>7.685107050696754</v>
+        <v>0.205638810318</v>
       </c>
       <c r="S8">
-        <v>0.06832292225962376</v>
+        <v>0.0001435373048663544</v>
       </c>
       <c r="T8">
-        <v>0.06832292225962376</v>
+        <v>0.0001435373048663544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.32503993251254</v>
+        <v>0.150426</v>
       </c>
       <c r="H9">
-        <v>0.32503993251254</v>
+        <v>0.451278</v>
       </c>
       <c r="I9">
-        <v>0.4603070266026398</v>
+        <v>0.1662542343845843</v>
       </c>
       <c r="J9">
-        <v>0.4603070266026398</v>
+        <v>0.1662542343845844</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.22191885869</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="N9">
-        <v>23.22191885869</v>
+        <v>6.883193</v>
       </c>
       <c r="O9">
-        <v>0.1457819415304978</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="P9">
-        <v>0.1457819415304978</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="Q9">
-        <v>7.548050938640277</v>
+        <v>0.345137063406</v>
       </c>
       <c r="R9">
-        <v>7.548050938640277</v>
+        <v>3.106233570654</v>
       </c>
       <c r="S9">
-        <v>0.06710445203826335</v>
+        <v>0.00216817241029351</v>
       </c>
       <c r="T9">
-        <v>0.06710445203826335</v>
+        <v>0.00216817241029351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.32503993251254</v>
+        <v>0.150426</v>
       </c>
       <c r="H10">
-        <v>0.32503993251254</v>
+        <v>0.451278</v>
       </c>
       <c r="I10">
-        <v>0.4603070266026398</v>
+        <v>0.1662542343845843</v>
       </c>
       <c r="J10">
-        <v>0.4603070266026398</v>
+        <v>0.1662542343845844</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>109.547129590327</v>
+        <v>36.15489266666666</v>
       </c>
       <c r="N10">
-        <v>109.547129590327</v>
+        <v>108.464678</v>
       </c>
       <c r="O10">
-        <v>0.6877120421422326</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="P10">
-        <v>0.6877120421422326</v>
+        <v>0.2055036229516214</v>
       </c>
       <c r="Q10">
-        <v>35.60719160898236</v>
+        <v>5.438635884275999</v>
       </c>
       <c r="R10">
-        <v>35.60719160898236</v>
+        <v>48.94772295848399</v>
       </c>
       <c r="S10">
-        <v>0.3165586852773204</v>
+        <v>0.03416584749708011</v>
       </c>
       <c r="T10">
-        <v>0.3165586852773204</v>
+        <v>0.03416584749708013</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.32503993251254</v>
+        <v>0.150426</v>
       </c>
       <c r="H11">
-        <v>0.32503993251254</v>
+        <v>0.451278</v>
       </c>
       <c r="I11">
-        <v>0.4603070266026398</v>
+        <v>0.1662542343845843</v>
       </c>
       <c r="J11">
-        <v>0.4603070266026398</v>
+        <v>0.1662542343845844</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.802128935121844</v>
+        <v>23.77214366666666</v>
       </c>
       <c r="N11">
-        <v>0.802128935121844</v>
+        <v>71.31643099999999</v>
       </c>
       <c r="O11">
-        <v>0.005035583589428225</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="P11">
-        <v>0.005035583589428225</v>
+        <v>0.13512034716481</v>
       </c>
       <c r="Q11">
-        <v>0.2607239349383598</v>
+        <v>3.575948483201999</v>
       </c>
       <c r="R11">
-        <v>0.2607239349383598</v>
+        <v>32.183536348818</v>
       </c>
       <c r="S11">
-        <v>0.002317914509258754</v>
+        <v>0.02246432986766472</v>
       </c>
       <c r="T11">
-        <v>0.002317914509258754</v>
+        <v>0.02246432986766473</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.256414480697267</v>
+        <v>0.150426</v>
       </c>
       <c r="H12">
-        <v>0.256414480697267</v>
+        <v>0.451278</v>
       </c>
       <c r="I12">
-        <v>0.3631227285683288</v>
+        <v>0.1662542343845843</v>
       </c>
       <c r="J12">
-        <v>0.3631227285683288</v>
+        <v>0.1662542343845844</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.0773941854408</v>
+        <v>112.663142</v>
       </c>
       <c r="N12">
-        <v>2.0773941854408</v>
+        <v>337.989426</v>
       </c>
       <c r="O12">
-        <v>0.01304140969230874</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="P12">
-        <v>0.01304140969230874</v>
+        <v>0.6403748468449697</v>
       </c>
       <c r="Q12">
-        <v>0.5326739512633247</v>
+        <v>16.947465798492</v>
       </c>
       <c r="R12">
-        <v>0.5326739512633247</v>
+        <v>152.527192186428</v>
       </c>
       <c r="S12">
-        <v>0.004735632271848599</v>
+        <v>0.1064650298813559</v>
       </c>
       <c r="T12">
-        <v>0.004735632271848599</v>
+        <v>0.1064650298813559</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.256414480697267</v>
+        <v>0.150426</v>
       </c>
       <c r="H13">
-        <v>0.256414480697267</v>
+        <v>0.451278</v>
       </c>
       <c r="I13">
-        <v>0.3631227285683288</v>
+        <v>0.1662542343845843</v>
       </c>
       <c r="J13">
-        <v>0.3631227285683288</v>
+        <v>0.1662542343845844</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.6435781637392</v>
+        <v>0.8966459999999999</v>
       </c>
       <c r="N13">
-        <v>23.6435781637392</v>
+        <v>2.689938</v>
       </c>
       <c r="O13">
-        <v>0.1484290230455325</v>
+        <v>0.005096516347148872</v>
       </c>
       <c r="P13">
-        <v>0.1484290230455325</v>
+        <v>0.005096516347148873</v>
       </c>
       <c r="Q13">
-        <v>6.062555816680429</v>
+        <v>0.134878871196</v>
       </c>
       <c r="R13">
-        <v>6.062555816680429</v>
+        <v>1.213909840764</v>
       </c>
       <c r="S13">
-        <v>0.05389795184702511</v>
+        <v>0.0008473174233237542</v>
       </c>
       <c r="T13">
-        <v>0.05389795184702511</v>
+        <v>0.0008473174233237544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.256414480697267</v>
+        <v>0.4352673333333333</v>
       </c>
       <c r="H14">
-        <v>0.256414480697267</v>
+        <v>1.305802</v>
       </c>
       <c r="I14">
-        <v>0.3631227285683288</v>
+        <v>0.481067350431129</v>
       </c>
       <c r="J14">
-        <v>0.3631227285683288</v>
+        <v>0.481067350431129</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>23.22191885869</v>
+        <v>0.1518936666666667</v>
       </c>
       <c r="N14">
-        <v>23.22191885869</v>
+        <v>0.455681</v>
       </c>
       <c r="O14">
-        <v>0.1457819415304978</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="P14">
-        <v>0.1457819415304978</v>
+        <v>0.0008633602951388269</v>
       </c>
       <c r="Q14">
-        <v>5.954436264945068</v>
+        <v>0.06611435124022222</v>
       </c>
       <c r="R14">
-        <v>5.954436264945068</v>
+        <v>0.595029161162</v>
       </c>
       <c r="S14">
-        <v>0.05293673638454294</v>
+        <v>0.000415334449649873</v>
       </c>
       <c r="T14">
-        <v>0.05293673638454294</v>
+        <v>0.000415334449649873</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.256414480697267</v>
+        <v>0.4352673333333333</v>
       </c>
       <c r="H15">
-        <v>0.256414480697267</v>
+        <v>1.305802</v>
       </c>
       <c r="I15">
-        <v>0.3631227285683288</v>
+        <v>0.481067350431129</v>
       </c>
       <c r="J15">
-        <v>0.3631227285683288</v>
+        <v>0.481067350431129</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>109.547129590327</v>
+        <v>2.294397666666667</v>
       </c>
       <c r="N15">
-        <v>109.547129590327</v>
+        <v>6.883193</v>
       </c>
       <c r="O15">
-        <v>0.6877120421422326</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="P15">
-        <v>0.6877120421422326</v>
+        <v>0.01304130639631125</v>
       </c>
       <c r="Q15">
-        <v>28.08947034577991</v>
+        <v>0.9986763539762221</v>
       </c>
       <c r="R15">
-        <v>28.08947034577991</v>
+        <v>8.988087185786</v>
       </c>
       <c r="S15">
-        <v>0.249723873211985</v>
+        <v>0.006273746714233988</v>
       </c>
       <c r="T15">
-        <v>0.249723873211985</v>
+        <v>0.00627374671423399</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,991 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4352673333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.305802</v>
+      </c>
+      <c r="I16">
+        <v>0.481067350431129</v>
+      </c>
+      <c r="J16">
+        <v>0.481067350431129</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>36.15489266666666</v>
+      </c>
+      <c r="N16">
+        <v>108.464678</v>
+      </c>
+      <c r="O16">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="P16">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="Q16">
+        <v>15.73704371797288</v>
+      </c>
+      <c r="R16">
+        <v>141.633393461756</v>
+      </c>
+      <c r="S16">
+        <v>0.09886108339733427</v>
+      </c>
+      <c r="T16">
+        <v>0.09886108339733428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4352673333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.305802</v>
+      </c>
+      <c r="I17">
+        <v>0.481067350431129</v>
+      </c>
+      <c r="J17">
+        <v>0.481067350431129</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>23.77214366666666</v>
+      </c>
+      <c r="N17">
+        <v>71.31643099999999</v>
+      </c>
+      <c r="O17">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="P17">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="Q17">
+        <v>10.34723758140689</v>
+      </c>
+      <c r="R17">
+        <v>93.12513823266198</v>
+      </c>
+      <c r="S17">
+        <v>0.06500198739990945</v>
+      </c>
+      <c r="T17">
+        <v>0.06500198739990945</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4352673333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.305802</v>
+      </c>
+      <c r="I18">
+        <v>0.481067350431129</v>
+      </c>
+      <c r="J18">
+        <v>0.481067350431129</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>112.663142</v>
+      </c>
+      <c r="N18">
+        <v>337.989426</v>
+      </c>
+      <c r="O18">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="P18">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="Q18">
+        <v>49.03858538329466</v>
+      </c>
+      <c r="R18">
+        <v>441.3472684496519</v>
+      </c>
+      <c r="S18">
+        <v>0.3080634308544496</v>
+      </c>
+      <c r="T18">
+        <v>0.3080634308544496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.256414480697267</v>
-      </c>
-      <c r="H16">
-        <v>0.256414480697267</v>
-      </c>
-      <c r="I16">
-        <v>0.3631227285683288</v>
-      </c>
-      <c r="J16">
-        <v>0.3631227285683288</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.802128935121844</v>
-      </c>
-      <c r="N16">
-        <v>0.802128935121844</v>
-      </c>
-      <c r="O16">
-        <v>0.005035583589428225</v>
-      </c>
-      <c r="P16">
-        <v>0.005035583589428225</v>
-      </c>
-      <c r="Q16">
-        <v>0.2056774743515194</v>
-      </c>
-      <c r="R16">
-        <v>0.2056774743515194</v>
-      </c>
-      <c r="S16">
-        <v>0.001828534852927076</v>
-      </c>
-      <c r="T16">
-        <v>0.001828534852927076</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4352673333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.305802</v>
+      </c>
+      <c r="I19">
+        <v>0.481067350431129</v>
+      </c>
+      <c r="J19">
+        <v>0.481067350431129</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="N19">
+        <v>2.689938</v>
+      </c>
+      <c r="O19">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="P19">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="Q19">
+        <v>0.3902807133639999</v>
+      </c>
+      <c r="R19">
+        <v>3.512526420276</v>
+      </c>
+      <c r="S19">
+        <v>0.002451767615551844</v>
+      </c>
+      <c r="T19">
+        <v>0.002451767615551844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2778663333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.833599</v>
+      </c>
+      <c r="I20">
+        <v>0.3071041875047202</v>
+      </c>
+      <c r="J20">
+        <v>0.3071041875047202</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1518936666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.455681</v>
+      </c>
+      <c r="O20">
+        <v>0.0008633602951388269</v>
+      </c>
+      <c r="P20">
+        <v>0.0008633602951388269</v>
+      </c>
+      <c r="Q20">
+        <v>0.04220613621322222</v>
+      </c>
+      <c r="R20">
+        <v>0.379855225919</v>
+      </c>
+      <c r="S20">
+        <v>0.0002651415619624449</v>
+      </c>
+      <c r="T20">
+        <v>0.0002651415619624449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2778663333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.833599</v>
+      </c>
+      <c r="I21">
+        <v>0.3071041875047202</v>
+      </c>
+      <c r="J21">
+        <v>0.3071041875047202</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.294397666666667</v>
+      </c>
+      <c r="N21">
+        <v>6.883193</v>
+      </c>
+      <c r="O21">
+        <v>0.01304130639631125</v>
+      </c>
+      <c r="P21">
+        <v>0.01304130639631125</v>
+      </c>
+      <c r="Q21">
+        <v>0.6375358668452222</v>
+      </c>
+      <c r="R21">
+        <v>5.737822801607</v>
+      </c>
+      <c r="S21">
+        <v>0.004005039804839278</v>
+      </c>
+      <c r="T21">
+        <v>0.004005039804839278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2778663333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.833599</v>
+      </c>
+      <c r="I22">
+        <v>0.3071041875047202</v>
+      </c>
+      <c r="J22">
+        <v>0.3071041875047202</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>36.15489266666666</v>
+      </c>
+      <c r="N22">
+        <v>108.464678</v>
+      </c>
+      <c r="O22">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="P22">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="Q22">
+        <v>10.04622745734689</v>
+      </c>
+      <c r="R22">
+        <v>90.41604711612199</v>
+      </c>
+      <c r="S22">
+        <v>0.06311102315583407</v>
+      </c>
+      <c r="T22">
+        <v>0.06311102315583408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2778663333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.833599</v>
+      </c>
+      <c r="I23">
+        <v>0.3071041875047202</v>
+      </c>
+      <c r="J23">
+        <v>0.3071041875047202</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>23.77214366666666</v>
+      </c>
+      <c r="N23">
+        <v>71.31643099999999</v>
+      </c>
+      <c r="O23">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="P23">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="Q23">
+        <v>6.605478396129889</v>
+      </c>
+      <c r="R23">
+        <v>59.44930556516899</v>
+      </c>
+      <c r="S23">
+        <v>0.0414960244314047</v>
+      </c>
+      <c r="T23">
+        <v>0.0414960244314047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2778663333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.833599</v>
+      </c>
+      <c r="I24">
+        <v>0.3071041875047202</v>
+      </c>
+      <c r="J24">
+        <v>0.3071041875047202</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>112.663142</v>
+      </c>
+      <c r="N24">
+        <v>337.989426</v>
+      </c>
+      <c r="O24">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="P24">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="Q24">
+        <v>31.30529416935266</v>
+      </c>
+      <c r="R24">
+        <v>281.747647524174</v>
+      </c>
+      <c r="S24">
+        <v>0.1966617970387841</v>
+      </c>
+      <c r="T24">
+        <v>0.1966617970387841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2778663333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.833599</v>
+      </c>
+      <c r="I25">
+        <v>0.3071041875047202</v>
+      </c>
+      <c r="J25">
+        <v>0.3071041875047202</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="N25">
+        <v>2.689938</v>
+      </c>
+      <c r="O25">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="P25">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="Q25">
+        <v>0.249147736318</v>
+      </c>
+      <c r="R25">
+        <v>2.242329626862</v>
+      </c>
+      <c r="S25">
+        <v>0.001565161511895679</v>
+      </c>
+      <c r="T25">
+        <v>0.001565161511895679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.02364033333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.070921</v>
+      </c>
+      <c r="I26">
+        <v>0.0261278337450288</v>
+      </c>
+      <c r="J26">
+        <v>0.0261278337450288</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.1518936666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.455681</v>
+      </c>
+      <c r="O26">
+        <v>0.0008633602951388269</v>
+      </c>
+      <c r="P26">
+        <v>0.0008633602951388269</v>
+      </c>
+      <c r="Q26">
+        <v>0.003590816911222222</v>
+      </c>
+      <c r="R26">
+        <v>0.032317352201</v>
+      </c>
+      <c r="S26">
+        <v>2.255773425344627E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.255773425344627E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.02364033333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.070921</v>
+      </c>
+      <c r="I27">
+        <v>0.0261278337450288</v>
+      </c>
+      <c r="J27">
+        <v>0.0261278337450288</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.294397666666667</v>
+      </c>
+      <c r="N27">
+        <v>6.883193</v>
+      </c>
+      <c r="O27">
+        <v>0.01304130639631125</v>
+      </c>
+      <c r="P27">
+        <v>0.01304130639631125</v>
+      </c>
+      <c r="Q27">
+        <v>0.05424032563922222</v>
+      </c>
+      <c r="R27">
+        <v>0.488162930753</v>
+      </c>
+      <c r="S27">
+        <v>0.000340741085340801</v>
+      </c>
+      <c r="T27">
+        <v>0.0003407410853408011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.02364033333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.070921</v>
+      </c>
+      <c r="I28">
+        <v>0.0261278337450288</v>
+      </c>
+      <c r="J28">
+        <v>0.0261278337450288</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>36.15489266666666</v>
+      </c>
+      <c r="N28">
+        <v>108.464678</v>
+      </c>
+      <c r="O28">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="P28">
+        <v>0.2055036229516214</v>
+      </c>
+      <c r="Q28">
+        <v>0.8547137142708887</v>
+      </c>
+      <c r="R28">
+        <v>7.692423428438</v>
+      </c>
+      <c r="S28">
+        <v>0.00536936449448105</v>
+      </c>
+      <c r="T28">
+        <v>0.00536936449448105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.02364033333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.070921</v>
+      </c>
+      <c r="I29">
+        <v>0.0261278337450288</v>
+      </c>
+      <c r="J29">
+        <v>0.0261278337450288</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>23.77214366666666</v>
+      </c>
+      <c r="N29">
+        <v>71.31643099999999</v>
+      </c>
+      <c r="O29">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="P29">
+        <v>0.13512034716481</v>
+      </c>
+      <c r="Q29">
+        <v>0.5619814003278888</v>
+      </c>
+      <c r="R29">
+        <v>5.057832602951</v>
+      </c>
+      <c r="S29">
+        <v>0.003530401966292729</v>
+      </c>
+      <c r="T29">
+        <v>0.003530401966292729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.02364033333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.070921</v>
+      </c>
+      <c r="I30">
+        <v>0.0261278337450288</v>
+      </c>
+      <c r="J30">
+        <v>0.0261278337450288</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>112.663142</v>
+      </c>
+      <c r="N30">
+        <v>337.989426</v>
+      </c>
+      <c r="O30">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="P30">
+        <v>0.6403748468449697</v>
+      </c>
+      <c r="Q30">
+        <v>2.663394231260666</v>
+      </c>
+      <c r="R30">
+        <v>23.970548081346</v>
+      </c>
+      <c r="S30">
+        <v>0.01673160753286365</v>
+      </c>
+      <c r="T30">
+        <v>0.01673160753286365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.02364033333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.070921</v>
+      </c>
+      <c r="I31">
+        <v>0.0261278337450288</v>
+      </c>
+      <c r="J31">
+        <v>0.0261278337450288</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.8966459999999999</v>
+      </c>
+      <c r="N31">
+        <v>2.689938</v>
+      </c>
+      <c r="O31">
+        <v>0.005096516347148872</v>
+      </c>
+      <c r="P31">
+        <v>0.005096516347148873</v>
+      </c>
+      <c r="Q31">
+        <v>0.021197010322</v>
+      </c>
+      <c r="R31">
+        <v>0.190773092898</v>
+      </c>
+      <c r="S31">
+        <v>0.0001331609317971272</v>
+      </c>
+      <c r="T31">
+        <v>0.0001331609317971272</v>
       </c>
     </row>
   </sheetData>
